--- a/resources/experiment 2/metrics/MAPE/upto time/Ictus (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Ictus (UPTO).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4618500226688192</v>
+        <v>4618500226688193</v>
       </c>
       <c r="C2" t="n">
         <v>4618500226688193</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3095924945957.655</v>
+        <v>97459378798436.83</v>
       </c>
       <c r="C3" t="n">
-        <v>3095924945957.655</v>
+        <v>87641103758085.58</v>
       </c>
       <c r="D3" t="n">
-        <v>3095924945957.655</v>
+        <v>457284915657149.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88602836293869.22</v>
+        <v>1808331252240.809</v>
       </c>
       <c r="C4" t="n">
-        <v>88626005090813.83</v>
+        <v>1776725103481.106</v>
       </c>
       <c r="D4" t="n">
-        <v>88626005090813.83</v>
+        <v>111761243991670.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1458009305546512</v>
+        <v>286363457254420.1</v>
       </c>
       <c r="C5" t="n">
-        <v>1458009305546512</v>
+        <v>318283505370468.3</v>
       </c>
       <c r="D5" t="n">
-        <v>1458009305546512</v>
+        <v>2534286757029580</v>
       </c>
     </row>
   </sheetData>
